--- a/Manual_Classified/Image classification.xlsx
+++ b/Manual_Classified/Image classification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School2(M)\DSAIE\STREET\Manual_Classified\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School2(M)\DSAIE\STREET-main\STREET-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A56050-C3E8-4709-B627-7951F9AC2F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E8B7F5-95A3-4B9C-87DA-2B0E906981C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="38">
   <si>
     <t>Panoid</t>
   </si>
@@ -53,238 +53,103 @@
     <t>b</t>
   </si>
   <si>
-    <t>Residential, Residential</t>
-  </si>
-  <si>
-    <t>Pedestrian, Residential</t>
-  </si>
-  <si>
-    <t>Pedestrian, Greenery</t>
-  </si>
-  <si>
-    <t>Main road, Infrastructure of interest</t>
-  </si>
-  <si>
-    <t>Residential street, Residential</t>
-  </si>
-  <si>
-    <t>main road, Public Amenities</t>
-  </si>
-  <si>
-    <t>Main road, Greenery</t>
-  </si>
-  <si>
-    <t>Main road, Public Amenities</t>
-  </si>
-  <si>
-    <t>Main Road ,  Transportation and Mobility</t>
-  </si>
-  <si>
-    <t>Pedestrian, Public Amenities</t>
-  </si>
-  <si>
-    <t>Pedestiran,  Public and Government Buildings</t>
-  </si>
-  <si>
     <t>Infrastructure of interest</t>
   </si>
   <si>
-    <t>Residential street, Retail and Commercial Services</t>
-  </si>
-  <si>
-    <t>main road, Financial and Administrative Services</t>
-  </si>
-  <si>
-    <t>Residential street, Transportation and Mobility</t>
-  </si>
-  <si>
-    <t>main road, Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>main road, Retail and Commercial Services</t>
-  </si>
-  <si>
-    <t>Pedestrian, Food and Beverage</t>
-  </si>
-  <si>
-    <t>Main road, Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>Main road, Food and Beverage</t>
-  </si>
-  <si>
-    <t>Pedestrian, Retail and Commercial Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential street, Public and Government Buildings </t>
-  </si>
-  <si>
-    <t>Pedestrian, Transportation and Mobility</t>
-  </si>
-  <si>
-    <t>Residential, Food and Beverage</t>
-  </si>
-  <si>
-    <t>Pedestrian, Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>Residential street, Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>Residential, Transportation and Mobility</t>
-  </si>
-  <si>
-    <t>Main road,  Transportation and Mobility</t>
-  </si>
-  <si>
-    <t>Main road, Transportation and Mobility</t>
-  </si>
-  <si>
-    <t>Residential street, Food and Beverage</t>
-  </si>
-  <si>
-    <t>Main road, Retail and Commercial Services</t>
-  </si>
-  <si>
-    <t>Pedestrian, Residential, Retail and Commercial Services</t>
-  </si>
-  <si>
-    <t>Main road,  Retail and Commercial Services</t>
-  </si>
-  <si>
-    <t>Pedestrian, Entertainment and Cultural Spaces</t>
-  </si>
-  <si>
-    <t>Main road, Public Services and Utilities</t>
-  </si>
-  <si>
-    <t>Residential Street, Retail and Commercial Services</t>
-  </si>
-  <si>
-    <t>Residential Street,  Transportation and Mobility</t>
-  </si>
-  <si>
-    <t>Residential Street, Financial and Administrative Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main road, residential </t>
-  </si>
-  <si>
-    <t>Main road, bridge</t>
-  </si>
-  <si>
-    <t>Pedestrian,  Food and Beverage</t>
-  </si>
-  <si>
-    <t>Pedestrian,  Public Amenities</t>
-  </si>
-  <si>
-    <t>Main Road,  Food and Beverage</t>
-  </si>
-  <si>
-    <t>Residential Street,  Public Services and Utilities</t>
-  </si>
-  <si>
-    <t>Main road, Education and Learning Spaces</t>
-  </si>
-  <si>
-    <t>Residential Street, Greenery</t>
-  </si>
-  <si>
-    <t>Residential Street, residential</t>
-  </si>
-  <si>
-    <t>Residential Street, Food and Beverage</t>
-  </si>
-  <si>
-    <t>Residential Street,  Retail and Commercial Services</t>
-  </si>
-  <si>
-    <t>Main road,  Public Amenities</t>
-  </si>
-  <si>
-    <t>Residential Street,  Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>Pedestrian,  Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>Main Road,  Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>Main Road, Greenery</t>
-  </si>
-  <si>
-    <t>Pedestrian, Financial, Administrative Services</t>
-  </si>
-  <si>
-    <t>Pedestrian, Food, Beverage</t>
-  </si>
-  <si>
-    <t>Main Road, Food, Beverage</t>
-  </si>
-  <si>
-    <t>Main Road,  Transportation and Mobility</t>
-  </si>
-  <si>
-    <t>Main Road,   Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>Main Road, Retail, Commercial Services</t>
-  </si>
-  <si>
-    <t>Pedestrian, Retail, Commercial Services</t>
-  </si>
-  <si>
-    <t>Pedestrian, Infrastructure of interest</t>
-  </si>
-  <si>
-    <t>Pedestrian, Pedestrian</t>
-  </si>
-  <si>
-    <t>Residential Street, Residential</t>
-  </si>
-  <si>
-    <t>Pedestrian, Entertainment, Cultural Spaces</t>
-  </si>
-  <si>
-    <t>River,  Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>River, Bridge</t>
-  </si>
-  <si>
-    <t>River, River</t>
-  </si>
-  <si>
-    <t>Main Road,  Public , Government Buildings</t>
-  </si>
-  <si>
-    <t>Main road,  Public and Government Buildings</t>
-  </si>
-  <si>
-    <t>Residential street, Education and Learning Spaces</t>
-  </si>
-  <si>
-    <t>Residential street, Financial and Administrative Services</t>
-  </si>
-  <si>
-    <t>Pedestrian, Financial and Administrative Services</t>
-  </si>
-  <si>
-    <t>Main road, Financial and Administrative Services</t>
-  </si>
-  <si>
-    <t>Main road, residential</t>
-  </si>
-  <si>
-    <t>Main road, Residential</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
     <t>lng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retail and Commercial Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greenery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Public and Government Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Public Amenities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Public Amenities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entertainment and Cultural Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Public and Government Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pedestrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Financial and Administrative Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Retail and Commercial Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Financial and Administrative Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Public and Government Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Food Beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Education and Learning Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Food Beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Residential buildings</t>
+  </si>
+  <si>
+    <t>Retail and Commercial Services</t>
+  </si>
+  <si>
+    <t>Transportation and Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Public and Government Buildings </t>
+  </si>
+  <si>
+    <t>Public and Government Buildings</t>
+  </si>
+  <si>
+    <t>Food and Beverage</t>
+  </si>
+  <si>
+    <t>Residential buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Residential buildings </t>
+  </si>
+  <si>
+    <t>Food and beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Food and beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bridge</t>
+  </si>
+  <si>
+    <t>Public Amenities</t>
+  </si>
+  <si>
+    <t>Public Services and Utilities</t>
+  </si>
+  <si>
+    <t>Greenery</t>
+  </si>
+  <si>
+    <t>Bridge</t>
   </si>
 </sst>
 </file>
@@ -344,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -627,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -676,17 +541,17 @@
       <c r="C2" s="5">
         <v>-0.104949</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -700,16 +565,16 @@
         <v>-0.106249</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -723,16 +588,16 @@
         <v>-0.104185</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -746,16 +611,16 @@
         <v>-0.10495599999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -769,16 +634,16 @@
         <v>-0.104293</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -792,16 +657,16 @@
         <v>-0.10320799999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -815,13 +680,13 @@
         <v>-0.10227</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -838,16 +703,16 @@
         <v>-9.2967999999999995E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -861,13 +726,13 @@
         <v>-9.8608000000000001E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
@@ -884,16 +749,16 @@
         <v>-9.6264000000000002E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -907,16 +772,16 @@
         <v>-9.01E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -930,16 +795,16 @@
         <v>-8.0484E-2</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -953,16 +818,16 @@
         <v>-7.6980000000000007E-2</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -976,16 +841,16 @@
         <v>-9.1911999999999994E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -999,16 +864,16 @@
         <v>-9.6973000000000004E-2</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1022,16 +887,16 @@
         <v>-9.1091000000000005E-2</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1045,16 +910,16 @@
         <v>-8.8387999999999994E-2</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1068,13 +933,13 @@
         <v>-8.7698999999999999E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
@@ -1091,16 +956,16 @@
         <v>-8.2214999999999996E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1114,16 +979,16 @@
         <v>-8.8777999999999996E-2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,16 +1002,16 @@
         <v>-8.0056000000000002E-2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1160,16 +1025,16 @@
         <v>-0.10434</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1183,16 +1048,16 @@
         <v>-8.3856E-2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1206,16 +1071,16 @@
         <v>-7.6142000000000001E-2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1229,16 +1094,16 @@
         <v>-9.1939000000000007E-2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1252,16 +1117,16 @@
         <v>-9.3182000000000001E-2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1275,16 +1140,16 @@
         <v>-0.102724</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1298,16 +1163,16 @@
         <v>-7.9195000000000002E-2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1321,16 +1186,16 @@
         <v>-9.9335000000000007E-2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1344,16 +1209,16 @@
         <v>-8.7201000000000001E-2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1367,16 +1232,16 @@
         <v>-9.5270999999999995E-2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1390,16 +1255,16 @@
         <v>-7.8386999999999998E-2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1413,16 +1278,16 @@
         <v>-7.9242000000000007E-2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1436,16 +1301,16 @@
         <v>-8.8306999999999997E-2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1459,16 +1324,16 @@
         <v>-8.0628000000000005E-2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1482,16 +1347,16 @@
         <v>-9.1645000000000004E-2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1505,16 +1370,16 @@
         <v>-0.106257</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1528,16 +1393,16 @@
         <v>-9.0180999999999997E-2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1551,16 +1416,16 @@
         <v>-9.2492000000000005E-2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1574,16 +1439,16 @@
         <v>-0.104143</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1597,16 +1462,16 @@
         <v>-0.101175</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1620,16 +1485,16 @@
         <v>-0.105451</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1643,16 +1508,16 @@
         <v>-0.103198</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1666,16 +1531,16 @@
         <v>-0.108416</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1689,16 +1554,16 @@
         <v>-0.111364</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1712,16 +1577,16 @@
         <v>-9.2430999999999999E-2</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1735,16 +1600,16 @@
         <v>-0.10198400000000001</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1758,16 +1623,16 @@
         <v>-0.100729</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1781,16 +1646,16 @@
         <v>-9.9409999999999998E-2</v>
       </c>
       <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
         <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1804,16 +1669,16 @@
         <v>-8.8368000000000002E-2</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1827,16 +1692,16 @@
         <v>-7.8266000000000002E-2</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1850,16 +1715,16 @@
         <v>-8.9782000000000001E-2</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1873,16 +1738,16 @@
         <v>-8.9039999999999994E-2</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1896,16 +1761,16 @@
         <v>-8.3184999999999995E-2</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1919,16 +1784,16 @@
         <v>-8.3233000000000001E-2</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1942,16 +1807,16 @@
         <v>-8.4504999999999997E-2</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1965,16 +1830,16 @@
         <v>-8.6670999999999998E-2</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1988,16 +1853,16 @@
         <v>-8.7554000000000007E-2</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2011,16 +1876,16 @@
         <v>-9.7624000000000002E-2</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2034,16 +1899,16 @@
         <v>-9.1327000000000005E-2</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2057,16 +1922,16 @@
         <v>-8.7378999999999998E-2</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2080,16 +1945,16 @@
         <v>-7.8687999999999994E-2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2103,16 +1968,16 @@
         <v>-0.103488</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2126,16 +1991,16 @@
         <v>-0.108135</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2149,16 +2014,16 @@
         <v>-7.6706999999999997E-2</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2172,16 +2037,16 @@
         <v>-0.10759299999999999</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2195,16 +2060,16 @@
         <v>-9.6326999999999996E-2</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2218,16 +2083,16 @@
         <v>-8.5108000000000003E-2</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2241,16 +2106,16 @@
         <v>-7.6512999999999998E-2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2264,16 +2129,16 @@
         <v>-8.7311E-2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2287,16 +2152,16 @@
         <v>-0.106903</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2310,16 +2175,16 @@
         <v>-9.2013999999999999E-2</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2333,16 +2198,16 @@
         <v>-8.6430000000000007E-2</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2356,16 +2221,16 @@
         <v>-8.2153000000000004E-2</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2379,16 +2244,16 @@
         <v>-0.109609</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2402,16 +2267,16 @@
         <v>-0.10707700000000001</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G77" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2425,16 +2290,16 @@
         <v>-8.2697000000000007E-2</v>
       </c>
       <c r="D78" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2448,16 +2313,16 @@
         <v>-9.4844999999999999E-2</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2471,16 +2336,16 @@
         <v>-0.10094599999999999</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2494,16 +2359,16 @@
         <v>-9.0129000000000001E-2</v>
       </c>
       <c r="D81" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2517,16 +2382,16 @@
         <v>-7.6587000000000002E-2</v>
       </c>
       <c r="D82" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2540,16 +2405,16 @@
         <v>-8.7488999999999997E-2</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2563,16 +2428,16 @@
         <v>-9.7378000000000006E-2</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2586,16 +2451,16 @@
         <v>-0.103077</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2609,16 +2474,16 @@
         <v>-9.8554000000000003E-2</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2632,16 +2497,16 @@
         <v>-8.8996000000000006E-2</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2655,16 +2520,16 @@
         <v>-9.3190999999999996E-2</v>
       </c>
       <c r="D88" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2678,16 +2543,16 @@
         <v>-9.3531000000000003E-2</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2701,16 +2566,16 @@
         <v>-0.10270899999999999</v>
       </c>
       <c r="D90" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2724,16 +2589,16 @@
         <v>-8.7028999999999995E-2</v>
       </c>
       <c r="D91" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2747,200 +2612,177 @@
         <v>-8.3708000000000005E-2</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>10</v>
+        <v>4787</v>
       </c>
       <c r="B93" s="6">
-        <v>51.510404000000001</v>
+        <v>51.509162000000003</v>
       </c>
       <c r="C93" s="5">
-        <v>-0.109304</v>
+        <v>-8.1949999999999995E-2</v>
       </c>
       <c r="D93" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E93" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>4787</v>
+        <v>3310</v>
       </c>
       <c r="B94" s="6">
-        <v>51.509162000000003</v>
+        <v>51.517691999999997</v>
       </c>
       <c r="C94" s="5">
-        <v>-8.1949999999999995E-2</v>
+        <v>-9.7244999999999998E-2</v>
       </c>
       <c r="D94" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>3310</v>
+        <v>6985</v>
       </c>
       <c r="B95" s="6">
-        <v>51.517691999999997</v>
+        <v>51.512487</v>
       </c>
       <c r="C95" s="5">
-        <v>-9.7244999999999998E-2</v>
+        <v>-8.8012999999999994E-2</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>6985</v>
+        <v>6793</v>
       </c>
       <c r="B96" s="6">
-        <v>51.512487</v>
+        <v>51.511473000000002</v>
       </c>
       <c r="C96" s="5">
-        <v>-8.8012999999999994E-2</v>
+        <v>-8.5390999999999995E-2</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>6793</v>
+        <v>8391</v>
       </c>
       <c r="B97" s="6">
-        <v>51.511473000000002</v>
+        <v>51.515832000000003</v>
       </c>
       <c r="C97" s="5">
-        <v>-8.5390999999999995E-2</v>
+        <v>-7.7906000000000003E-2</v>
       </c>
       <c r="D97" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G97" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>8391</v>
+        <v>8009</v>
       </c>
       <c r="B98" s="6">
-        <v>51.515832000000003</v>
+        <v>51.518411</v>
       </c>
       <c r="C98" s="5">
-        <v>-7.7906000000000003E-2</v>
+        <v>-8.4891999999999995E-2</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>8009</v>
+        <v>2999</v>
       </c>
       <c r="B99" s="6">
-        <v>51.518411</v>
+        <v>51.516359999999999</v>
       </c>
       <c r="C99" s="5">
-        <v>-8.4891999999999995E-2</v>
+        <v>-0.102354</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>2999</v>
-      </c>
-      <c r="B100" s="6">
-        <v>51.516359999999999</v>
-      </c>
-      <c r="C100" s="5">
-        <v>-0.102354</v>
-      </c>
-      <c r="D100" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" t="s">
-        <v>35</v>
-      </c>
-      <c r="F100" t="s">
-        <v>35</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
